--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228002.979690841</v>
+        <v>2225128.188022446</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505270.6374244618</v>
+        <v>505270.6374244607</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,56 +735,56 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15.16194852731947</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E4" t="n">
-        <v>15.16194852731947</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="F4" t="n">
         <v>15.16194852731947</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.35464426286299</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>6.478598521151554</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,55 +990,55 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13.35464426286299</v>
       </c>
       <c r="Y6" t="n">
         <v>15.16194852731947</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>142.3743074279356</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99.09124979773374</v>
+      </c>
+      <c r="G8" t="n">
         <v>142.3743074279356</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>92.21520405602232</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>26.31204018479184</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>142.3743074279356</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>142.3743074279356</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>142.3743074279356</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>142.3743074279356</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>142.3743074279356</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.0713154153728</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>53.16211366621025</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>142.3743074279356</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>142.3743074279356</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.5441683288782</v>
+        <v>125.4032899825256</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>142.3743074279356</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>142.3743074279356</v>
       </c>
       <c r="E10" t="n">
         <v>142.3743074279356</v>
       </c>
       <c r="F10" t="n">
-        <v>142.3743074279356</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.97981141132912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>12.28055101240925</v>
       </c>
       <c r="R10" t="n">
-        <v>82.14292755878728</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>113.1227389701164</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672535</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>21.53422681128449</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.74877385786696</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>307.4126946285556</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8408768347417</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5385214226889</v>
+        <v>236.2681744305615</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5409766885036</v>
       </c>
       <c r="H16" t="n">
         <v>140.444421496384</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.77221281624404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.3197333251179</v>
       </c>
       <c r="T16" t="n">
-        <v>159.5230381777712</v>
+        <v>217.4773962021096</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1853928472206</v>
+        <v>220.3153571222882</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8408768347417</v>
+        <v>362.5705298426144</v>
       </c>
       <c r="H17" t="n">
         <v>283.5385214226889</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.28757233965501</v>
+        <v>84.55791933178202</v>
       </c>
       <c r="T17" t="n">
         <v>199.1865544357095</v>
@@ -1938,7 +1938,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H18" t="n">
-        <v>84.01166562297048</v>
+        <v>84.0116656229705</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>151.0391680841384</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5409766885036</v>
       </c>
       <c r="H19" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.77221281624404</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.13236223536893</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.3197333251179</v>
       </c>
       <c r="T19" t="n">
-        <v>160.6619442335118</v>
+        <v>217.4773962021096</v>
       </c>
       <c r="U19" t="n">
         <v>286.1853928472206</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4634946713534</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T20" t="n">
         <v>199.1865544357095</v>
       </c>
       <c r="U20" t="n">
-        <v>250.908704053405</v>
+        <v>203.6383570612788</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H21" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>85.6844884673279</v>
       </c>
       <c r="E22" t="n">
-        <v>9.178004211031038</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S22" t="n">
         <v>181.3197333251179</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T23" t="n">
         <v>199.1865544357095</v>
@@ -2412,7 +2412,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H24" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.3197333251179</v>
       </c>
       <c r="T25" t="n">
-        <v>160.6619442335109</v>
+        <v>79.45666977165186</v>
       </c>
       <c r="U25" t="n">
         <v>286.1853928472206</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T26" t="n">
         <v>199.1865544357095</v>
@@ -2649,7 +2649,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H27" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>69.34668291156503</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5409766885036</v>
       </c>
       <c r="H28" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S28" t="n">
         <v>181.3197333251179</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>206.6665101154149</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T29" t="n">
         <v>199.1865544357095</v>
@@ -2886,7 +2886,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H30" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>104.9521184873084</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>165.5409766885036</v>
       </c>
       <c r="H31" t="n">
-        <v>65.56455980175511</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.13236223536893</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S31" t="n">
         <v>181.3197333251179</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T32" t="n">
         <v>199.1865544357095</v>
@@ -3123,7 +3123,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H33" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>92.36695940399895</v>
       </c>
       <c r="F34" t="n">
-        <v>65.56455980175512</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5409766885036</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.13236223536893</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S34" t="n">
         <v>181.3197333251179</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>310.3415384088028</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.55791933178202</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T35" t="n">
         <v>199.1865544357095</v>
       </c>
       <c r="U35" t="n">
-        <v>250.908704053405</v>
+        <v>206.5672008415262</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H36" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>92.36695940399912</v>
       </c>
       <c r="G37" t="n">
-        <v>29.99086266309037</v>
+        <v>165.5409766885036</v>
       </c>
       <c r="H37" t="n">
         <v>140.444421496384</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S37" t="n">
         <v>181.3197333251179</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.55791933178202</v>
+        <v>37.2875723396559</v>
       </c>
       <c r="T38" t="n">
-        <v>151.9162074435829</v>
+        <v>199.1865544357095</v>
       </c>
       <c r="U38" t="n">
         <v>250.908704053405</v>
@@ -3597,7 +3597,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H39" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>92.36695940399933</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5409766885036</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.13236223536893</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S40" t="n">
         <v>181.3197333251179</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>214.809432878105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>359.605698749585</v>
       </c>
       <c r="G41" t="n">
         <v>409.8408768347417</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.28757233965501</v>
+        <v>84.55791933178199</v>
       </c>
       <c r="T41" t="n">
         <v>199.1865544357095</v>
@@ -3834,7 +3834,7 @@
         <v>134.4211640642624</v>
       </c>
       <c r="H42" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5409766885036</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.56455980175458</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.13236223536893</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S43" t="n">
         <v>181.3197333251179</v>
@@ -3952,7 +3952,7 @@
         <v>217.4773962021096</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1853928472206</v>
+        <v>223.2544082963362</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3992,7 @@
         <v>409.8408768347417</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2681744305588</v>
+        <v>283.5385214226889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.55791933178203</v>
+        <v>37.2875723396559</v>
       </c>
       <c r="T44" t="n">
         <v>199.1865544357095</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4211640642625</v>
+        <v>134.4211640642624</v>
       </c>
       <c r="H45" t="n">
-        <v>84.0116656229705</v>
+        <v>84.01166562297048</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>87.3903328774512</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>69.05758087816459</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5409766885036</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.77221281624404</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.13236223536894</v>
+        <v>67.13236223536892</v>
       </c>
       <c r="S46" t="n">
         <v>181.3197333251179</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4334,7 +4334,7 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L2" t="n">
-        <v>16.22328492423183</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M2" t="n">
         <v>30.62713602518533</v>
@@ -4355,19 +4355,19 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X2" t="n">
         <v>45.33269458673296</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="E3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="F3" t="n">
         <v>1.212955882185558</v>
@@ -4410,19 +4410,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K3" t="n">
+        <v>1.212955882185558</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.212955882185558</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.212955882185558</v>
+      </c>
+      <c r="N3" t="n">
         <v>16.22328492423183</v>
       </c>
-      <c r="L3" t="n">
-        <v>31.23361396627811</v>
-      </c>
-      <c r="M3" t="n">
-        <v>45.6374650672316</v>
-      </c>
-      <c r="N3" t="n">
-        <v>45.6374650672316</v>
-      </c>
       <c r="O3" t="n">
-        <v>45.6374650672316</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="P3" t="n">
         <v>45.6374650672316</v>
@@ -4431,28 +4431,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="S3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="T3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="U3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="V3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="W3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="X3" t="n">
-        <v>30.01759506418804</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="C4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="D4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="E4" t="n">
         <v>31.61113686504564</v>
@@ -4501,37 +4501,37 @@
         <v>46.24394300832439</v>
       </c>
       <c r="O4" t="n">
-        <v>60.64779410927788</v>
+        <v>55.78032168160431</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="R4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="V4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="W4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="X4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="C5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="D5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="E5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="F5" t="n">
         <v>31.8431549272754</v>
@@ -4574,16 +4574,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="M5" t="n">
-        <v>10.45600866564848</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="N5" t="n">
-        <v>25.46633770769475</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O5" t="n">
-        <v>40.47666674974103</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P5" t="n">
-        <v>55.48699579178731</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
@@ -4607,10 +4607,10 @@
         <v>45.33269458673296</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="C6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="D6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="E6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="F6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="G6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="H6" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I6" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>22.52990524122875</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="L6" t="n">
-        <v>37.54023428327503</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="M6" t="n">
         <v>45.6374650672316</v>
       </c>
       <c r="N6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P6" t="n">
         <v>60.64779410927788</v>
@@ -4668,7 +4668,7 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S6" t="n">
         <v>45.33269458673296</v>
@@ -4686,10 +4686,10 @@
         <v>45.33269458673296</v>
       </c>
       <c r="X6" t="n">
-        <v>31.8431549272754</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.92623638759056</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C7" t="n">
-        <v>46.92623638759056</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="D7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="E7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="F7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="G7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="H7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J7" t="n">
         <v>16.29603734250072</v>
@@ -4735,7 +4735,7 @@
         <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O7" t="n">
         <v>55.7803216816043</v>
@@ -4744,31 +4744,31 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="8">
@@ -4781,16 +4781,16 @@
         <v>255.2945478524867</v>
       </c>
       <c r="C8" t="n">
-        <v>111.4821161070972</v>
+        <v>255.2945478524867</v>
       </c>
       <c r="D8" t="n">
-        <v>111.4821161070972</v>
+        <v>255.2945478524867</v>
       </c>
       <c r="E8" t="n">
-        <v>111.4821161070972</v>
+        <v>255.2945478524867</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5366153578938</v>
+        <v>155.2023763396244</v>
       </c>
       <c r="G8" t="n">
         <v>11.38994459423485</v>
@@ -4829,7 +4829,7 @@
         <v>542.9194113432658</v>
       </c>
       <c r="S8" t="n">
-        <v>399.1069795978763</v>
+        <v>542.9194113432658</v>
       </c>
       <c r="T8" t="n">
         <v>399.1069795978763</v>
@@ -4844,10 +4844,10 @@
         <v>399.1069795978763</v>
       </c>
       <c r="X8" t="n">
-        <v>255.2945478524867</v>
+        <v>399.1069795978763</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.2945478524867</v>
+        <v>399.1069795978763</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.1913881109854</v>
+        <v>299.0148080850139</v>
       </c>
       <c r="C9" t="n">
-        <v>168.1913881109854</v>
+        <v>155.2023763396244</v>
       </c>
       <c r="D9" t="n">
-        <v>168.1913881109854</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="E9" t="n">
-        <v>168.1913881109854</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="F9" t="n">
-        <v>168.1913881109854</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="G9" t="n">
-        <v>168.1913881109854</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="H9" t="n">
-        <v>65.08904930757853</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="I9" t="n">
         <v>11.38994459423485</v>
@@ -4890,7 +4890,7 @@
         <v>132.2240462510088</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5031350371264</v>
+        <v>255.5031350371265</v>
       </c>
       <c r="N9" t="n">
         <v>396.4536993907827</v>
@@ -4917,16 +4917,16 @@
         <v>569.4972297117424</v>
       </c>
       <c r="V9" t="n">
-        <v>425.6847979663529</v>
+        <v>569.4972297117424</v>
       </c>
       <c r="W9" t="n">
-        <v>425.6847979663529</v>
+        <v>569.4972297117424</v>
       </c>
       <c r="X9" t="n">
-        <v>281.8723662209634</v>
+        <v>569.4972297117424</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.1913881109854</v>
+        <v>442.8272398304034</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="C10" t="n">
-        <v>330.3075468843363</v>
+        <v>299.0148080850139</v>
       </c>
       <c r="D10" t="n">
-        <v>330.3075468843363</v>
+        <v>155.2023763396244</v>
       </c>
       <c r="E10" t="n">
-        <v>186.4951151389467</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="F10" t="n">
-        <v>42.68268339355719</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="G10" t="n">
-        <v>42.68268339355719</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="H10" t="n">
-        <v>42.68268339355719</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="I10" t="n">
-        <v>42.68268339355719</v>
+        <v>11.38994459423485</v>
       </c>
       <c r="J10" t="n">
         <v>11.38994459423485</v>
@@ -4984,28 +4984,28 @@
         <v>557.0926327295109</v>
       </c>
       <c r="R10" t="n">
-        <v>474.1199786297258</v>
+        <v>557.0926327295109</v>
       </c>
       <c r="S10" t="n">
-        <v>474.1199786297258</v>
+        <v>557.0926327295109</v>
       </c>
       <c r="T10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="U10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="V10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="W10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="X10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.1199786297258</v>
+        <v>442.8272398304034</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364376</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,37 +5054,37 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>141.6400447072585</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1015.338720041567</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1637.434683440903</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2184.311158441098</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.4953311667364</v>
+        <v>748.7434782279602</v>
       </c>
       <c r="C13" t="n">
-        <v>325.5591482388294</v>
+        <v>579.8072953000533</v>
       </c>
       <c r="D13" t="n">
-        <v>175.4425088264937</v>
+        <v>429.6906558877175</v>
       </c>
       <c r="E13" t="n">
-        <v>175.4425088264937</v>
+        <v>281.7775623053244</v>
       </c>
       <c r="F13" t="n">
-        <v>175.4425088264937</v>
+        <v>281.7775623053244</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>114.5633674799033</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>114.5633674799033</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.952770513332</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.782580252263</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.103797966644</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.027584281371</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.343096075484</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.925926038524</v>
+        <v>1379.174073099747</v>
       </c>
       <c r="X13" t="n">
-        <v>896.9363751405062</v>
+        <v>1151.18452220173</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.1437959969761</v>
+        <v>930.3919430581999</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1900.547260622046</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.029387259868</v>
+        <v>1542.281562015295</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.241134661624</v>
+        <v>1156.493309417051</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2552298720163</v>
+        <v>745.5074046274433</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2745462005601</v>
+        <v>331.526720955987</v>
       </c>
       <c r="H14" t="n">
         <v>92.87199930895517</v>
       </c>
       <c r="I14" t="n">
-        <v>92.96356867630902</v>
+        <v>92.96356867630948</v>
       </c>
       <c r="J14" t="n">
-        <v>372.6610351381988</v>
+        <v>372.6610351381992</v>
       </c>
       <c r="K14" t="n">
-        <v>842.5935515220172</v>
+        <v>842.5935515220176</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.48815422969</v>
+        <v>1462.488154229691</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.909778088846</v>
+        <v>2183.909778088847</v>
       </c>
       <c r="N14" t="n">
         <v>2921.618566423964</v>
@@ -5355,25 +5355,25 @@
         <v>92.87199930895517</v>
       </c>
       <c r="J15" t="n">
-        <v>92.87199930895517</v>
+        <v>240.6400472571947</v>
       </c>
       <c r="K15" t="n">
-        <v>92.87199930895517</v>
+        <v>571.3540020740523</v>
       </c>
       <c r="L15" t="n">
-        <v>583.8802653523007</v>
+        <v>1062.362268117398</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.220620633427</v>
+        <v>1654.702623398524</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.06426317621</v>
+        <v>2277.129110235952</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.243102549264</v>
+        <v>2552.792790213287</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.069295041473</v>
+        <v>2552.792790213287</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.792790213287</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>553.7878736657473</v>
+        <v>782.5760868502817</v>
       </c>
       <c r="C16" t="n">
-        <v>384.8516907378404</v>
+        <v>782.5760868502817</v>
       </c>
       <c r="D16" t="n">
-        <v>234.7350513255046</v>
+        <v>632.459447437946</v>
       </c>
       <c r="E16" t="n">
-        <v>234.7350513255046</v>
+        <v>484.5463538555528</v>
       </c>
       <c r="F16" t="n">
-        <v>234.7350513255046</v>
+        <v>484.5463538555528</v>
       </c>
       <c r="G16" t="n">
-        <v>234.7350513255046</v>
+        <v>317.3332460893875</v>
       </c>
       <c r="H16" t="n">
-        <v>92.87199930895517</v>
+        <v>175.470194072838</v>
       </c>
       <c r="I16" t="n">
         <v>92.87199930895517</v>
@@ -5464,22 +5464,22 @@
         <v>2178.530663169263</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.396281171514</v>
+        <v>1958.856525591375</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.320126780382</v>
+        <v>1736.315760821386</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.635638574495</v>
+        <v>1481.631272615499</v>
       </c>
       <c r="W16" t="n">
-        <v>1184.218468537535</v>
+        <v>1192.214102578539</v>
       </c>
       <c r="X16" t="n">
-        <v>956.2289176395171</v>
+        <v>964.2245516805215</v>
       </c>
       <c r="Y16" t="n">
-        <v>735.436338495987</v>
+        <v>964.2245516805215</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.25760280703</v>
+        <v>2269.509777562457</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.295085866619</v>
+        <v>1900.547260622046</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.029387259868</v>
+        <v>1542.281562015295</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.241134661624</v>
+        <v>1156.493309417051</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2552298720163</v>
+        <v>745.5074046274433</v>
       </c>
       <c r="G17" t="n">
         <v>379.2745462005601</v>
@@ -5510,28 +5510,28 @@
         <v>92.87199930895517</v>
       </c>
       <c r="I17" t="n">
-        <v>92.96356867630914</v>
+        <v>92.96356867630925</v>
       </c>
       <c r="J17" t="n">
-        <v>372.6610351381989</v>
+        <v>372.6610351381991</v>
       </c>
       <c r="K17" t="n">
-        <v>842.5935515220181</v>
+        <v>842.5935515220172</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.488154229691</v>
+        <v>1462.48815422969</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.909778088848</v>
+        <v>2183.909778088846</v>
       </c>
       <c r="N17" t="n">
-        <v>2921.618566423965</v>
+        <v>2921.618566423964</v>
       </c>
       <c r="O17" t="n">
         <v>3604.880795042983</v>
       </c>
       <c r="P17" t="n">
-        <v>4153.528298480015</v>
+        <v>4153.528298480014</v>
       </c>
       <c r="Q17" t="n">
         <v>4517.366977978638</v>
@@ -5540,25 +5540,25 @@
         <v>4643.599965447758</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.935750963258</v>
+        <v>4558.187925718686</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.737211129208</v>
+        <v>4356.989385884635</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.294075721728</v>
+        <v>4103.546250477156</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.231188378158</v>
+        <v>3772.483363133585</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.462533108044</v>
+        <v>3419.714707863471</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.996774846964</v>
+        <v>3046.248949602391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.857442871152</v>
+        <v>2656.109617626579</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>92.87199930895517</v>
       </c>
       <c r="J18" t="n">
-        <v>92.87199930895517</v>
+        <v>240.6400472571947</v>
       </c>
       <c r="K18" t="n">
-        <v>423.5859541258129</v>
+        <v>571.3540020740523</v>
       </c>
       <c r="L18" t="n">
-        <v>790.8471087216791</v>
+        <v>1062.362268117398</v>
       </c>
       <c r="M18" t="n">
-        <v>1383.187464002805</v>
+        <v>1654.702623398524</v>
       </c>
       <c r="N18" t="n">
-        <v>2005.613950840233</v>
+        <v>2277.129110235952</v>
       </c>
       <c r="O18" t="n">
         <v>2552.792790213287</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.5991761957954</v>
+        <v>495.2481180856078</v>
       </c>
       <c r="C19" t="n">
-        <v>634.6629932678885</v>
+        <v>342.6833018390033</v>
       </c>
       <c r="D19" t="n">
-        <v>484.5463538555528</v>
+        <v>342.6833018390033</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5463538555528</v>
+        <v>342.6833018390033</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5463538555528</v>
+        <v>342.6833018390033</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3332460893875</v>
+        <v>175.470194072838</v>
       </c>
       <c r="H19" t="n">
         <v>175.470194072838</v>
@@ -5677,46 +5677,46 @@
         <v>431.6819580622332</v>
       </c>
       <c r="L19" t="n">
-        <v>819.6021760499618</v>
+        <v>819.6021760499616</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.998778584511</v>
+        <v>1238.99877858451</v>
       </c>
       <c r="N19" t="n">
         <v>1653.857683730139</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.0307339772</v>
+        <v>2021.030733977199</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.690027339192</v>
+        <v>2311.690027339191</v>
       </c>
       <c r="Q19" t="n">
         <v>2429.492375856624</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.492375856624</v>
+        <v>2361.681908952211</v>
       </c>
       <c r="S19" t="n">
-        <v>2429.492375856624</v>
+        <v>2178.530663169263</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.207583701562</v>
+        <v>1958.856525591375</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.13142931043</v>
+        <v>1669.780371200243</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.446941104543</v>
+        <v>1415.095882994356</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.029771067582</v>
+        <v>1125.678712957395</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.040220169565</v>
+        <v>897.6891620593776</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.2476410260351</v>
+        <v>676.8965829158475</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.2745462005601</v>
       </c>
       <c r="H20" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I20" t="n">
         <v>92.96356867630902</v>
       </c>
       <c r="J20" t="n">
-        <v>372.6610351381988</v>
+        <v>372.6610351381989</v>
       </c>
       <c r="K20" t="n">
-        <v>842.5935515220169</v>
+        <v>842.5935515220172</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.48815422969</v>
+        <v>1462.488154229691</v>
       </c>
       <c r="M20" t="n">
         <v>2183.909778088847</v>
@@ -5765,37 +5765,37 @@
         <v>2921.618566423964</v>
       </c>
       <c r="O20" t="n">
-        <v>3604.880795042983</v>
+        <v>3604.880795042984</v>
       </c>
       <c r="P20" t="n">
-        <v>4153.528298480015</v>
+        <v>4153.528298480016</v>
       </c>
       <c r="Q20" t="n">
-        <v>4517.366977978638</v>
+        <v>4517.366977978639</v>
       </c>
       <c r="R20" t="n">
-        <v>4643.599965447758</v>
+        <v>4643.599965447759</v>
       </c>
       <c r="S20" t="n">
-        <v>4558.187925718686</v>
+        <v>4558.187925718687</v>
       </c>
       <c r="T20" t="n">
-        <v>4356.989385884635</v>
+        <v>4356.989385884636</v>
       </c>
       <c r="U20" t="n">
-        <v>4103.546250477156</v>
+        <v>4151.294075721728</v>
       </c>
       <c r="V20" t="n">
-        <v>3772.483363133585</v>
+        <v>3820.231188378158</v>
       </c>
       <c r="W20" t="n">
-        <v>3419.714707863471</v>
+        <v>3467.462533108044</v>
       </c>
       <c r="X20" t="n">
-        <v>3046.248949602391</v>
+        <v>3093.996774846964</v>
       </c>
       <c r="Y20" t="n">
-        <v>2656.109617626579</v>
+        <v>2703.857442871152</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>177.732267614986</v>
       </c>
       <c r="H21" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I21" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J21" t="n">
-        <v>92.87199930895517</v>
+        <v>240.6400472571947</v>
       </c>
       <c r="K21" t="n">
-        <v>299.8388426783339</v>
+        <v>571.3540020740525</v>
       </c>
       <c r="L21" t="n">
-        <v>790.8471087216795</v>
+        <v>1062.362268117398</v>
       </c>
       <c r="M21" t="n">
         <v>1383.187464002805</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.058584990021</v>
+        <v>495.2481180856087</v>
       </c>
       <c r="C22" t="n">
-        <v>394.1224020621141</v>
+        <v>326.3119351577018</v>
       </c>
       <c r="D22" t="n">
-        <v>244.0057626497784</v>
+        <v>239.7619468068655</v>
       </c>
       <c r="E22" t="n">
-        <v>234.7350513255046</v>
+        <v>239.7619468068655</v>
       </c>
       <c r="F22" t="n">
-        <v>234.7350513255046</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="G22" t="n">
-        <v>234.7350513255046</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="H22" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I22" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J22" t="n">
         <v>171.9294478716184</v>
@@ -5914,46 +5914,46 @@
         <v>431.6819580622332</v>
       </c>
       <c r="L22" t="n">
-        <v>819.6021760499616</v>
+        <v>819.6021760499618</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.99877858451</v>
+        <v>1238.998778584511</v>
       </c>
       <c r="N22" t="n">
         <v>1653.857683730139</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.030733977199</v>
+        <v>2021.0307339772</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.690027339191</v>
+        <v>2311.690027339192</v>
       </c>
       <c r="Q22" t="n">
         <v>2429.492375856624</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.492375856624</v>
+        <v>2361.681908952211</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.341130073676</v>
+        <v>2178.530663169264</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.666992495788</v>
+        <v>1958.856525591375</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.590838104656</v>
+        <v>1669.780371200244</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.906349898769</v>
+        <v>1415.095882994357</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.489179861808</v>
+        <v>1125.678712957396</v>
       </c>
       <c r="X22" t="n">
-        <v>965.4996289637909</v>
+        <v>897.6891620593785</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.7070498202607</v>
+        <v>676.8965829158484</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.84644472210972</v>
       </c>
       <c r="I23" t="n">
-        <v>93.93801408946362</v>
+        <v>93.93801408946365</v>
       </c>
       <c r="J23" t="n">
-        <v>373.6354805513533</v>
+        <v>373.6354805513535</v>
       </c>
       <c r="K23" t="n">
-        <v>843.5679969351714</v>
+        <v>843.5679969351717</v>
       </c>
       <c r="L23" t="n">
-        <v>1511.210424887419</v>
+        <v>1463.462599642845</v>
       </c>
       <c r="M23" t="n">
-        <v>2232.632048746575</v>
+        <v>2232.632048746574</v>
       </c>
       <c r="N23" t="n">
-        <v>2970.340837081693</v>
+        <v>2970.340837081691</v>
       </c>
       <c r="O23" t="n">
         <v>3653.60306570071</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.250569137743</v>
+        <v>4202.250569137742</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.089248636366</v>
+        <v>4566.089248636365</v>
       </c>
       <c r="R23" t="n">
         <v>4692.322236105486</v>
@@ -6075,7 +6075,7 @@
         <v>1063.336713530553</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.677068811679</v>
+        <v>1384.161909415959</v>
       </c>
       <c r="N24" t="n">
         <v>2006.588396253388</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>804.57362160895</v>
+        <v>635.6374386810431</v>
       </c>
       <c r="C25" t="n">
         <v>635.6374386810431</v>
@@ -6145,13 +6145,13 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J25" t="n">
-        <v>172.9038932847729</v>
+        <v>172.903893284773</v>
       </c>
       <c r="K25" t="n">
         <v>432.6564034753877</v>
       </c>
       <c r="L25" t="n">
-        <v>820.5766214631162</v>
+        <v>820.5766214631163</v>
       </c>
       <c r="M25" t="n">
         <v>1239.973223997665</v>
@@ -6169,28 +6169,28 @@
         <v>2430.466821269778</v>
       </c>
       <c r="R25" t="n">
-        <v>2430.466821269778</v>
+        <v>2362.656354365365</v>
       </c>
       <c r="S25" t="n">
-        <v>2430.466821269778</v>
+        <v>2179.505108582418</v>
       </c>
       <c r="T25" t="n">
-        <v>2268.182029114717</v>
+        <v>2099.24584618681</v>
       </c>
       <c r="U25" t="n">
-        <v>1979.105874723585</v>
+        <v>1810.169691795678</v>
       </c>
       <c r="V25" t="n">
-        <v>1724.421386517698</v>
+        <v>1555.485203589791</v>
       </c>
       <c r="W25" t="n">
-        <v>1435.004216480737</v>
+        <v>1266.06803355283</v>
       </c>
       <c r="X25" t="n">
-        <v>1207.01466558272</v>
+        <v>1038.078482654813</v>
       </c>
       <c r="Y25" t="n">
-        <v>986.2220864391898</v>
+        <v>817.2859035112829</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.84644472210972</v>
       </c>
       <c r="I26" t="n">
-        <v>93.93801408946362</v>
+        <v>93.93801408946365</v>
       </c>
       <c r="J26" t="n">
-        <v>373.6354805513533</v>
+        <v>373.6354805513535</v>
       </c>
       <c r="K26" t="n">
-        <v>843.5679969351714</v>
+        <v>891.3158221797439</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.462599642845</v>
+        <v>1511.210424887418</v>
       </c>
       <c r="M26" t="n">
-        <v>2184.884223502001</v>
+        <v>2232.632048746574</v>
       </c>
       <c r="N26" t="n">
-        <v>2922.593011837118</v>
+        <v>2970.340837081691</v>
       </c>
       <c r="O26" t="n">
-        <v>3605.855240456136</v>
+        <v>3653.60306570071</v>
       </c>
       <c r="P26" t="n">
-        <v>4154.502743893168</v>
+        <v>4202.250569137742</v>
       </c>
       <c r="Q26" t="n">
-        <v>4518.341423391792</v>
+        <v>4566.089248636365</v>
       </c>
       <c r="R26" t="n">
         <v>4692.322236105486</v>
@@ -6303,28 +6303,28 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84644472210972</v>
+        <v>241.6144926703492</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84644472210972</v>
+        <v>572.3284474872069</v>
       </c>
       <c r="L27" t="n">
-        <v>105.8667588862595</v>
+        <v>1063.336713530553</v>
       </c>
       <c r="M27" t="n">
-        <v>698.2071141673854</v>
+        <v>1655.677068811679</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.633601004813</v>
+        <v>2006.588396253388</v>
       </c>
       <c r="O27" t="n">
-        <v>1867.812440377867</v>
+        <v>2553.767235626441</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.638632870076</v>
+        <v>2553.767235626441</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.36212804189</v>
+        <v>2553.767235626441</v>
       </c>
       <c r="R27" t="n">
         <v>2553.767235626441</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>792.0225813011934</v>
+        <v>576.8856829140923</v>
       </c>
       <c r="C28" t="n">
-        <v>623.0863983732866</v>
+        <v>407.9494999861854</v>
       </c>
       <c r="D28" t="n">
-        <v>472.9697589609508</v>
+        <v>407.9494999861854</v>
       </c>
       <c r="E28" t="n">
-        <v>472.9697589609508</v>
+        <v>407.9494999861854</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9226045048245</v>
+        <v>261.059552488275</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7094967386592</v>
+        <v>93.84644472210972</v>
       </c>
       <c r="H28" t="n">
         <v>93.84644472210972</v>
@@ -6382,13 +6382,13 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J28" t="n">
-        <v>172.9038932847729</v>
+        <v>172.903893284773</v>
       </c>
       <c r="K28" t="n">
         <v>432.6564034753877</v>
       </c>
       <c r="L28" t="n">
-        <v>820.5766214631162</v>
+        <v>820.5766214631163</v>
       </c>
       <c r="M28" t="n">
         <v>1239.973223997665</v>
@@ -6406,28 +6406,28 @@
         <v>2430.466821269778</v>
       </c>
       <c r="R28" t="n">
-        <v>2430.466821269778</v>
+        <v>2362.656354365365</v>
       </c>
       <c r="S28" t="n">
-        <v>2247.315575486831</v>
+        <v>2179.505108582418</v>
       </c>
       <c r="T28" t="n">
-        <v>2027.641437908943</v>
+        <v>1959.83097100453</v>
       </c>
       <c r="U28" t="n">
-        <v>1738.565283517811</v>
+        <v>1670.754816613398</v>
       </c>
       <c r="V28" t="n">
-        <v>1483.880795311924</v>
+        <v>1416.070328407511</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.463625274963</v>
+        <v>1207.316277785879</v>
       </c>
       <c r="X28" t="n">
-        <v>1194.463625274963</v>
+        <v>979.3267268878622</v>
       </c>
       <c r="Y28" t="n">
-        <v>973.6710461314332</v>
+        <v>758.534147744332</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.232048220184</v>
+        <v>2318.232048220183</v>
       </c>
       <c r="C29" t="n">
         <v>1949.269531279772</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.003832673022</v>
+        <v>1591.003832673021</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.215580074778</v>
+        <v>1205.215580074777</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2296752851701</v>
+        <v>794.2296752851703</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2489916137146</v>
+        <v>380.2489916137138</v>
       </c>
       <c r="H29" t="n">
         <v>93.84644472210972</v>
       </c>
       <c r="I29" t="n">
-        <v>93.93801408946362</v>
+        <v>93.93801408946365</v>
       </c>
       <c r="J29" t="n">
-        <v>373.6354805513533</v>
+        <v>421.3833057959257</v>
       </c>
       <c r="K29" t="n">
-        <v>843.5679969351714</v>
+        <v>891.3158221797439</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.462599642845</v>
+        <v>1511.210424887418</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.884223502001</v>
+        <v>2232.632048746574</v>
       </c>
       <c r="N29" t="n">
-        <v>2922.593011837118</v>
+        <v>2970.340837081691</v>
       </c>
       <c r="O29" t="n">
-        <v>3605.855240456136</v>
+        <v>3653.60306570071</v>
       </c>
       <c r="P29" t="n">
-        <v>4154.502743893168</v>
+        <v>4202.250569137742</v>
       </c>
       <c r="Q29" t="n">
-        <v>4518.341423391792</v>
+        <v>4566.089248636365</v>
       </c>
       <c r="R29" t="n">
         <v>4692.322236105486</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.910196376413</v>
+        <v>4606.910196376412</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.711656542363</v>
+        <v>4405.711656542362</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.268521134883</v>
+        <v>4152.268521134882</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.205633791312</v>
+        <v>3821.205633791311</v>
       </c>
       <c r="W29" t="n">
         <v>3468.436978521197</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.971220260118</v>
+        <v>3094.971220260117</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.831888284306</v>
+        <v>2704.831888284305</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84644472210972</v>
+        <v>241.6144926703492</v>
       </c>
       <c r="K30" t="n">
-        <v>300.8132880914881</v>
+        <v>572.3284474872069</v>
       </c>
       <c r="L30" t="n">
-        <v>791.8215541348337</v>
+        <v>1063.336713530553</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.16190941596</v>
+        <v>1655.677068811679</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.588396253388</v>
+        <v>2278.103555649107</v>
       </c>
       <c r="O30" t="n">
         <v>2553.767235626441</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.2225634987628</v>
+        <v>571.8587874327314</v>
       </c>
       <c r="C31" t="n">
-        <v>327.286380570856</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="D31" t="n">
-        <v>327.286380570856</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="E31" t="n">
-        <v>327.286380570856</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="F31" t="n">
-        <v>327.286380570856</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="G31" t="n">
-        <v>160.0732728046906</v>
+        <v>235.7094967386592</v>
       </c>
       <c r="H31" t="n">
         <v>93.84644472210972</v>
@@ -6619,13 +6619,13 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J31" t="n">
-        <v>172.9038932847729</v>
+        <v>172.903893284773</v>
       </c>
       <c r="K31" t="n">
         <v>432.6564034753877</v>
       </c>
       <c r="L31" t="n">
-        <v>820.5766214631162</v>
+        <v>820.5766214631163</v>
       </c>
       <c r="M31" t="n">
         <v>1239.973223997665</v>
@@ -6686,40 +6686,40 @@
         <v>1205.215580074779</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2296752851707</v>
+        <v>794.2296752851712</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2489916137146</v>
+        <v>380.2489916137147</v>
       </c>
       <c r="H32" t="n">
         <v>93.84644472210972</v>
       </c>
       <c r="I32" t="n">
-        <v>93.93801408946362</v>
+        <v>93.93801408946365</v>
       </c>
       <c r="J32" t="n">
-        <v>373.6354805513533</v>
+        <v>421.3833057959257</v>
       </c>
       <c r="K32" t="n">
-        <v>843.5679969351714</v>
+        <v>891.3158221797439</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.462599642845</v>
+        <v>1511.210424887418</v>
       </c>
       <c r="M32" t="n">
-        <v>2184.884223502001</v>
+        <v>2232.632048746574</v>
       </c>
       <c r="N32" t="n">
-        <v>2922.593011837118</v>
+        <v>2970.340837081691</v>
       </c>
       <c r="O32" t="n">
-        <v>3605.855240456136</v>
+        <v>3653.60306570071</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.250569137743</v>
+        <v>4202.250569137742</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.089248636366</v>
+        <v>4566.089248636365</v>
       </c>
       <c r="R32" t="n">
         <v>4692.322236105486</v>
@@ -6789,13 +6789,13 @@
         <v>1655.677068811679</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.588396253388</v>
+        <v>2278.103555649107</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.767235626441</v>
+        <v>2278.103555649107</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.767235626441</v>
+        <v>2323.043740454627</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.767235626441</v>
@@ -6835,19 +6835,19 @@
         <v>496.2225634987628</v>
       </c>
       <c r="C34" t="n">
-        <v>327.286380570856</v>
+        <v>496.2225634987628</v>
       </c>
       <c r="D34" t="n">
-        <v>327.286380570856</v>
+        <v>496.2225634987628</v>
       </c>
       <c r="E34" t="n">
-        <v>327.286380570856</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="F34" t="n">
-        <v>261.059552488275</v>
+        <v>402.9226045048245</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84644472210972</v>
+        <v>235.7094967386592</v>
       </c>
       <c r="H34" t="n">
         <v>93.84644472210972</v>
@@ -6856,13 +6856,13 @@
         <v>93.84644472210972</v>
       </c>
       <c r="J34" t="n">
-        <v>172.9038932847729</v>
+        <v>172.903893284773</v>
       </c>
       <c r="K34" t="n">
         <v>432.6564034753877</v>
       </c>
       <c r="L34" t="n">
-        <v>820.5766214631162</v>
+        <v>820.5766214631163</v>
       </c>
       <c r="M34" t="n">
         <v>1239.973223997665</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2272.528581706188</v>
+        <v>2317.317978889905</v>
       </c>
       <c r="C35" t="n">
-        <v>1903.566064765776</v>
+        <v>1948.355461949493</v>
       </c>
       <c r="D35" t="n">
         <v>1590.089763342743</v>
@@ -6929,58 +6929,58 @@
         <v>379.3349222834347</v>
       </c>
       <c r="H35" t="n">
-        <v>92.93237539182978</v>
+        <v>92.93237539182981</v>
       </c>
       <c r="I35" t="n">
-        <v>93.02394475918368</v>
+        <v>93.02394475918373</v>
       </c>
       <c r="J35" t="n">
-        <v>372.7214112210734</v>
+        <v>375.6798392819303</v>
       </c>
       <c r="K35" t="n">
-        <v>842.6539276048916</v>
+        <v>845.6123556657485</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.548530312565</v>
+        <v>1465.506958373422</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.970154171721</v>
+        <v>2186.928582232579</v>
       </c>
       <c r="N35" t="n">
-        <v>2921.678942506839</v>
+        <v>2924.637370567696</v>
       </c>
       <c r="O35" t="n">
-        <v>3604.941171125856</v>
+        <v>3607.899599186714</v>
       </c>
       <c r="P35" t="n">
-        <v>4153.588674562889</v>
+        <v>4156.547102623746</v>
       </c>
       <c r="Q35" t="n">
-        <v>4520.385782122368</v>
+        <v>4520.38578212237</v>
       </c>
       <c r="R35" t="n">
-        <v>4646.618769591489</v>
+        <v>4646.61876959149</v>
       </c>
       <c r="S35" t="n">
-        <v>4561.206729862416</v>
+        <v>4561.206729862418</v>
       </c>
       <c r="T35" t="n">
-        <v>4360.008190028366</v>
+        <v>4360.008190028368</v>
       </c>
       <c r="U35" t="n">
-        <v>4106.565054620886</v>
+        <v>4151.354451804604</v>
       </c>
       <c r="V35" t="n">
-        <v>3775.502167277315</v>
+        <v>3820.291564461033</v>
       </c>
       <c r="W35" t="n">
-        <v>3422.733512007201</v>
+        <v>3467.522909190919</v>
       </c>
       <c r="X35" t="n">
-        <v>3049.267753746121</v>
+        <v>3094.057150929839</v>
       </c>
       <c r="Y35" t="n">
-        <v>2659.12842177031</v>
+        <v>2703.917818954027</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>177.7926436978606</v>
       </c>
       <c r="H36" t="n">
-        <v>92.93237539182978</v>
+        <v>92.93237539182981</v>
       </c>
       <c r="I36" t="n">
-        <v>92.93237539182978</v>
+        <v>92.93237539182981</v>
       </c>
       <c r="J36" t="n">
         <v>240.7004233400693</v>
       </c>
       <c r="K36" t="n">
-        <v>571.4143781569269</v>
+        <v>571.414378156927</v>
       </c>
       <c r="L36" t="n">
-        <v>790.907484804554</v>
+        <v>1062.422644200273</v>
       </c>
       <c r="M36" t="n">
-        <v>1383.24784008568</v>
+        <v>1654.762999481399</v>
       </c>
       <c r="N36" t="n">
         <v>2005.674326923108</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.1189610728964</v>
+        <v>495.3084941684831</v>
       </c>
       <c r="C37" t="n">
-        <v>563.1189610728964</v>
+        <v>495.3084941684831</v>
       </c>
       <c r="D37" t="n">
-        <v>413.0023216605606</v>
+        <v>495.3084941684831</v>
       </c>
       <c r="E37" t="n">
-        <v>265.0892280781675</v>
+        <v>495.3084941684831</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0892280781675</v>
+        <v>402.0085351745446</v>
       </c>
       <c r="G37" t="n">
-        <v>234.7954274083792</v>
+        <v>234.7954274083793</v>
       </c>
       <c r="H37" t="n">
-        <v>92.93237539182978</v>
+        <v>92.93237539182981</v>
       </c>
       <c r="I37" t="n">
-        <v>92.93237539182978</v>
+        <v>92.93237539182981</v>
       </c>
       <c r="J37" t="n">
-        <v>171.989823954493</v>
+        <v>171.9898239544931</v>
       </c>
       <c r="K37" t="n">
-        <v>431.7423341451077</v>
+        <v>431.7423341451079</v>
       </c>
       <c r="L37" t="n">
-        <v>819.6625521328363</v>
+        <v>819.6625521328365</v>
       </c>
       <c r="M37" t="n">
         <v>1239.059154667385</v>
@@ -7117,28 +7117,28 @@
         <v>2429.552751939499</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.552751939499</v>
+        <v>2361.742285035085</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.401506156551</v>
+        <v>2178.591039252138</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.727368578663</v>
+        <v>1958.91690167425</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.651214187531</v>
+        <v>1669.840747283118</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.966725981644</v>
+        <v>1415.156259077231</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.549555944684</v>
+        <v>1125.73908904027</v>
       </c>
       <c r="X37" t="n">
-        <v>965.5600050466662</v>
+        <v>897.749538142253</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.7674259031361</v>
+        <v>676.9569589987228</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>379.2745462005601</v>
       </c>
       <c r="H38" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I38" t="n">
-        <v>92.96356867630907</v>
+        <v>92.96356867630948</v>
       </c>
       <c r="J38" t="n">
-        <v>372.6610351381988</v>
+        <v>372.6610351381996</v>
       </c>
       <c r="K38" t="n">
-        <v>842.5935515220169</v>
+        <v>842.5935515220185</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.48815422969</v>
+        <v>1462.488154229692</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.909778088847</v>
+        <v>2183.909778088848</v>
       </c>
       <c r="N38" t="n">
-        <v>2921.618566423964</v>
+        <v>2921.618566423966</v>
       </c>
       <c r="O38" t="n">
-        <v>3604.880795042982</v>
+        <v>3604.880795042984</v>
       </c>
       <c r="P38" t="n">
-        <v>4153.528298480014</v>
+        <v>4153.528298480016</v>
       </c>
       <c r="Q38" t="n">
-        <v>4517.366977978638</v>
+        <v>4517.366977978639</v>
       </c>
       <c r="R38" t="n">
-        <v>4643.599965447758</v>
+        <v>4643.599965447759</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.187925718686</v>
+        <v>4605.935750963258</v>
       </c>
       <c r="T38" t="n">
         <v>4404.737211129208</v>
@@ -7245,16 +7245,16 @@
         <v>177.732267614986</v>
       </c>
       <c r="H39" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I39" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J39" t="n">
         <v>240.6400472571947</v>
       </c>
       <c r="K39" t="n">
-        <v>571.3540020740523</v>
+        <v>571.3540020740525</v>
       </c>
       <c r="L39" t="n">
         <v>1062.362268117398</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0510229977563</v>
+        <v>495.2481180856087</v>
       </c>
       <c r="C40" t="n">
-        <v>558.1148400698494</v>
+        <v>401.9481590916699</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9982006575136</v>
+        <v>401.9481590916699</v>
       </c>
       <c r="E40" t="n">
-        <v>260.0851070751205</v>
+        <v>401.9481590916699</v>
       </c>
       <c r="F40" t="n">
-        <v>260.0851070751205</v>
+        <v>401.9481590916699</v>
       </c>
       <c r="G40" t="n">
-        <v>92.87199930895517</v>
+        <v>234.7350513255046</v>
       </c>
       <c r="H40" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I40" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J40" t="n">
         <v>171.9294478716184</v>
@@ -7336,19 +7336,19 @@
         <v>431.6819580622332</v>
       </c>
       <c r="L40" t="n">
-        <v>819.6021760499616</v>
+        <v>819.6021760499618</v>
       </c>
       <c r="M40" t="n">
-        <v>1238.99877858451</v>
+        <v>1238.998778584511</v>
       </c>
       <c r="N40" t="n">
         <v>1653.857683730139</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.030733977199</v>
+        <v>2021.0307339772</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.690027339191</v>
+        <v>2311.690027339192</v>
       </c>
       <c r="Q40" t="n">
         <v>2429.492375856624</v>
@@ -7357,25 +7357,25 @@
         <v>2361.681908952211</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.530663169263</v>
+        <v>2178.530663169264</v>
       </c>
       <c r="T40" t="n">
         <v>1958.856525591375</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.780371200243</v>
+        <v>1669.780371200244</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.095882994356</v>
+        <v>1415.095882994357</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.678712957395</v>
+        <v>1125.678712957396</v>
       </c>
       <c r="X40" t="n">
-        <v>908.699487827996</v>
+        <v>897.6891620593785</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.699487827996</v>
+        <v>676.8965829158484</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.25760280703</v>
+        <v>2269.509777562458</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.295085866619</v>
+        <v>1900.547260622046</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.029387259868</v>
+        <v>1542.281562015296</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.241134661624</v>
+        <v>1156.493309417052</v>
       </c>
       <c r="F41" t="n">
         <v>793.2552298720163</v>
@@ -7403,58 +7403,58 @@
         <v>379.2745462005601</v>
       </c>
       <c r="H41" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I41" t="n">
-        <v>92.96356867630902</v>
+        <v>92.96356867630948</v>
       </c>
       <c r="J41" t="n">
-        <v>372.6610351381988</v>
+        <v>372.6610351382001</v>
       </c>
       <c r="K41" t="n">
-        <v>842.5935515220169</v>
+        <v>842.5935515220185</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.48815422969</v>
+        <v>1462.488154229692</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.909778088847</v>
+        <v>2183.909778088848</v>
       </c>
       <c r="N41" t="n">
-        <v>2921.618566423964</v>
+        <v>2921.618566423966</v>
       </c>
       <c r="O41" t="n">
-        <v>3604.880795042983</v>
+        <v>3604.880795042984</v>
       </c>
       <c r="P41" t="n">
-        <v>4153.528298480015</v>
+        <v>4153.528298480016</v>
       </c>
       <c r="Q41" t="n">
-        <v>4517.366977978638</v>
+        <v>4517.366977978639</v>
       </c>
       <c r="R41" t="n">
-        <v>4643.599965447758</v>
+        <v>4643.599965447759</v>
       </c>
       <c r="S41" t="n">
-        <v>4605.935750963258</v>
+        <v>4558.187925718687</v>
       </c>
       <c r="T41" t="n">
-        <v>4404.737211129208</v>
+        <v>4356.989385884636</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.294075721728</v>
+        <v>4103.546250477157</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.231188378158</v>
+        <v>3772.483363133586</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.462533108044</v>
+        <v>3419.714707863472</v>
       </c>
       <c r="X41" t="n">
-        <v>3093.996774846964</v>
+        <v>3046.248949602392</v>
       </c>
       <c r="Y41" t="n">
-        <v>2703.857442871152</v>
+        <v>2656.10961762658</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7482,16 @@
         <v>177.732267614986</v>
       </c>
       <c r="H42" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I42" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J42" t="n">
         <v>240.6400472571947</v>
       </c>
       <c r="K42" t="n">
-        <v>571.3540020740523</v>
+        <v>571.3540020740525</v>
       </c>
       <c r="L42" t="n">
         <v>1062.362268117398</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.2481180856078</v>
+        <v>558.8147691471081</v>
       </c>
       <c r="C43" t="n">
-        <v>326.3119351577009</v>
+        <v>389.8785862192012</v>
       </c>
       <c r="D43" t="n">
-        <v>326.3119351577009</v>
+        <v>239.7619468068655</v>
       </c>
       <c r="E43" t="n">
-        <v>326.3119351577009</v>
+        <v>239.7619468068655</v>
       </c>
       <c r="F43" t="n">
-        <v>326.3119351577009</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="G43" t="n">
-        <v>159.0988273915356</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="H43" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I43" t="n">
-        <v>92.87199930895517</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J43" t="n">
         <v>171.9294478716184</v>
@@ -7573,19 +7573,19 @@
         <v>431.6819580622332</v>
       </c>
       <c r="L43" t="n">
-        <v>819.6021760499616</v>
+        <v>819.6021760499618</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.99877858451</v>
+        <v>1238.998778584511</v>
       </c>
       <c r="N43" t="n">
         <v>1653.857683730139</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.030733977199</v>
+        <v>2021.0307339772</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.690027339191</v>
+        <v>2311.690027339192</v>
       </c>
       <c r="Q43" t="n">
         <v>2429.492375856624</v>
@@ -7594,25 +7594,25 @@
         <v>2361.681908952211</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.530663169263</v>
+        <v>2178.530663169264</v>
       </c>
       <c r="T43" t="n">
         <v>1958.856525591375</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.780371200243</v>
+        <v>1733.347022261743</v>
       </c>
       <c r="V43" t="n">
-        <v>1415.095882994356</v>
+        <v>1478.662534055856</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.678712957395</v>
+        <v>1189.245364018895</v>
       </c>
       <c r="X43" t="n">
-        <v>897.6891620593776</v>
+        <v>961.255813120878</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.8965829158475</v>
+        <v>740.4632339773478</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2269.509777562454</v>
+        <v>2317.25760280703</v>
       </c>
       <c r="C44" t="n">
-        <v>1900.547260622043</v>
+        <v>1948.295085866619</v>
       </c>
       <c r="D44" t="n">
-        <v>1542.281562015292</v>
+        <v>1590.029387259868</v>
       </c>
       <c r="E44" t="n">
-        <v>1156.493309417048</v>
+        <v>1204.241134661624</v>
       </c>
       <c r="F44" t="n">
-        <v>745.5074046274406</v>
+        <v>793.2552298720163</v>
       </c>
       <c r="G44" t="n">
-        <v>331.5267209559843</v>
+        <v>379.2745462005601</v>
       </c>
       <c r="H44" t="n">
-        <v>92.87199930895511</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I44" t="n">
-        <v>92.96356867630902</v>
+        <v>92.96356867630857</v>
       </c>
       <c r="J44" t="n">
         <v>372.6610351381987</v>
       </c>
       <c r="K44" t="n">
-        <v>842.5935515220167</v>
+        <v>842.5935515220169</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.48815422969</v>
+        <v>1462.488154229691</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.909778088846</v>
+        <v>2183.909778088847</v>
       </c>
       <c r="N44" t="n">
-        <v>2921.618566423963</v>
+        <v>2921.618566423965</v>
       </c>
       <c r="O44" t="n">
-        <v>3604.88079504298</v>
+        <v>3604.880795042983</v>
       </c>
       <c r="P44" t="n">
-        <v>4153.528298480012</v>
+        <v>4153.528298480016</v>
       </c>
       <c r="Q44" t="n">
-        <v>4517.366977978636</v>
+        <v>4517.366977978639</v>
       </c>
       <c r="R44" t="n">
-        <v>4643.599965447755</v>
+        <v>4643.599965447759</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.187925718683</v>
+        <v>4605.935750963258</v>
       </c>
       <c r="T44" t="n">
-        <v>4356.989385884633</v>
+        <v>4404.737211129208</v>
       </c>
       <c r="U44" t="n">
-        <v>4103.546250477153</v>
+        <v>4151.294075721728</v>
       </c>
       <c r="V44" t="n">
-        <v>3772.483363133582</v>
+        <v>3820.231188378158</v>
       </c>
       <c r="W44" t="n">
-        <v>3419.714707863468</v>
+        <v>3467.462533108044</v>
       </c>
       <c r="X44" t="n">
-        <v>3046.248949602388</v>
+        <v>3093.996774846964</v>
       </c>
       <c r="Y44" t="n">
-        <v>2656.109617626576</v>
+        <v>2703.857442871152</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7713,31 @@
         <v>460.0457791883661</v>
       </c>
       <c r="F45" t="n">
-        <v>313.511221215251</v>
+        <v>313.5112212152511</v>
       </c>
       <c r="G45" t="n">
-        <v>177.7322676149859</v>
+        <v>177.732267614986</v>
       </c>
       <c r="H45" t="n">
-        <v>92.87199930895511</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="I45" t="n">
-        <v>92.87199930895511</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J45" t="n">
-        <v>240.6400472571945</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="K45" t="n">
-        <v>571.3540020740521</v>
+        <v>423.5859541258129</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.362268117398</v>
+        <v>914.5942201691587</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.702623398523</v>
+        <v>1506.934575450285</v>
       </c>
       <c r="N45" t="n">
-        <v>2005.613950840234</v>
+        <v>2129.361062287713</v>
       </c>
       <c r="O45" t="n">
         <v>2552.792790213287</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.2481180856078</v>
+        <v>723.237668983626</v>
       </c>
       <c r="C46" t="n">
-        <v>406.9750545730308</v>
+        <v>554.3014860557191</v>
       </c>
       <c r="D46" t="n">
-        <v>406.9750545730308</v>
+        <v>554.3014860557191</v>
       </c>
       <c r="E46" t="n">
-        <v>406.9750545730308</v>
+        <v>484.5463538555529</v>
       </c>
       <c r="F46" t="n">
-        <v>260.0851070751204</v>
+        <v>484.5463538555529</v>
       </c>
       <c r="G46" t="n">
-        <v>92.87199930895511</v>
+        <v>317.3332460893876</v>
       </c>
       <c r="H46" t="n">
-        <v>92.87199930895511</v>
+        <v>175.4701940728381</v>
       </c>
       <c r="I46" t="n">
-        <v>92.87199930895511</v>
+        <v>92.87199930895518</v>
       </c>
       <c r="J46" t="n">
-        <v>171.9294478716183</v>
+        <v>171.9294478716184</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6819580622331</v>
+        <v>431.6819580622332</v>
       </c>
       <c r="L46" t="n">
-        <v>819.6021760499616</v>
+        <v>819.6021760499618</v>
       </c>
       <c r="M46" t="n">
-        <v>1238.99877858451</v>
+        <v>1238.998778584511</v>
       </c>
       <c r="N46" t="n">
         <v>1653.857683730139</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.030733977199</v>
+        <v>2021.0307339772</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.690027339191</v>
+        <v>2311.690027339192</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.492375856623</v>
+        <v>2429.492375856624</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.68190895221</v>
+        <v>2361.681908952211</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.530663169263</v>
+        <v>2178.530663169264</v>
       </c>
       <c r="T46" t="n">
         <v>1958.856525591375</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.780371200243</v>
+        <v>1669.780371200244</v>
       </c>
       <c r="V46" t="n">
-        <v>1415.095882994356</v>
+        <v>1415.095882994357</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.678712957395</v>
+        <v>1125.678712957396</v>
       </c>
       <c r="X46" t="n">
-        <v>897.6891620593776</v>
+        <v>1125.678712957396</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.8965829158475</v>
+        <v>904.8861338138657</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>228.7108053025997</v>
+        <v>228.0982013216979</v>
       </c>
       <c r="M2" t="n">
-        <v>220.1742634169181</v>
+        <v>220.7868673978199</v>
       </c>
       <c r="N2" t="n">
         <v>204.2917325281876</v>
@@ -8058,22 +8058,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>140.8394464083196</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>137.5967913765127</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>126.9119083523187</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>139.2229632339716</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q3" t="n">
         <v>145.5280738211766</v>
@@ -8149,10 +8149,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.0794803480808</v>
+        <v>139.1628415322489</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8222,7 +8222,7 @@
         <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>214.9613358234932</v>
+        <v>220.1742634169181</v>
       </c>
       <c r="N5" t="n">
         <v>219.453681055507</v>
@@ -8234,7 +8234,7 @@
         <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>140.8394464083196</v>
+        <v>140.2268424274178</v>
       </c>
       <c r="L6" t="n">
         <v>137.3604083836059</v>
       </c>
       <c r="M6" t="n">
-        <v>131.2264678239905</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
-        <v>126.9119083523187</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8383,10 +8383,10 @@
         <v>144.1881980719757</v>
       </c>
       <c r="N7" t="n">
-        <v>133.1833473911586</v>
+        <v>127.6541045944249</v>
       </c>
       <c r="O7" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.23012650967098</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>48.23012650966905</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>48.23012650966899</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>48.23012650967067</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>48.23012650966893</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>48.23012650967067</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>48.23012650966893</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.23012650967144</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.988311172582542</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.9883111725822</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.27034993312452</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4319777332165842</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>47.27034699212737</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5409766885036</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.77221281624404</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.95435802433835</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.87003572493242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>47.27034699212732</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.27034699212698</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>16.20765301448944</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.13236223536892</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3197333251179</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>56.81545196859781</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.2703469921272</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.27034699212626</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>62.93098455088446</v>
       </c>
       <c r="E22" t="n">
-        <v>137.2559584355381</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5409766885036</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I22" t="n">
         <v>81.77221281624404</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.13236223536893</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.13236223536893</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3197333251179</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>56.81545196859872</v>
+        <v>138.0207264304577</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>76.07436511136622</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I28" t="n">
         <v>81.77221281624404</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.13236223536893</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>79.85648822117611</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.87986169462889</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.87986169462886</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.77221281624404</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>54.06700324257022</v>
       </c>
       <c r="F34" t="n">
-        <v>79.85648822117612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.77221281624404</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>44.34150321188014</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>44.3415032118788</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>53.05408861893213</v>
       </c>
       <c r="G37" t="n">
-        <v>135.5501140254133</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.13236223536893</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>47.27034699212609</v>
       </c>
       <c r="T38" t="n">
-        <v>47.2703469921266</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>74.8798616946285</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.77221281624404</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.9002225109322</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>47.27034699212646</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.27034699212701</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5409766885036</v>
       </c>
       <c r="H43" t="n">
-        <v>74.87986169462938</v>
+        <v>140.444421496384</v>
       </c>
       <c r="I43" t="n">
         <v>81.77221281624404</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.93098455088446</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>47.27034699213002</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.27034699212609</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>79.85648822117663</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>77.37638176840458</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.444421496384</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.77221281624405</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810609.0431831914</v>
+        <v>810609.0431831912</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810877.3803921045</v>
+        <v>810877.3803921043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810877.3803921045</v>
+        <v>810877.3803921044</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815887.8133854829</v>
+        <v>815887.8133854828</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815887.8133854828</v>
+        <v>815887.8133854826</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811187.8239670467</v>
+        <v>811187.8239670468</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810877.3803921043</v>
+        <v>810877.3803921044</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810877.3803921042</v>
+        <v>810877.3803921043</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>602009.8287285231</v>
+        <v>602009.828728523</v>
       </c>
       <c r="F2" t="n">
-        <v>602211.0816352079</v>
+        <v>602211.0816352078</v>
       </c>
       <c r="G2" t="n">
-        <v>602211.0816352081</v>
+        <v>602211.081635208</v>
       </c>
       <c r="H2" t="n">
-        <v>602211.0816352079</v>
+        <v>602211.081635208</v>
       </c>
       <c r="I2" t="n">
-        <v>605033.1213506376</v>
+        <v>605033.121350638</v>
       </c>
       <c r="J2" t="n">
-        <v>605033.121350638</v>
+        <v>605033.1213506379</v>
       </c>
       <c r="K2" t="n">
         <v>605033.1213506379</v>
       </c>
       <c r="L2" t="n">
-        <v>605033.1213506376</v>
+        <v>605033.1213506379</v>
       </c>
       <c r="M2" t="n">
-        <v>602385.9336088888</v>
+        <v>602385.9336088889</v>
       </c>
       <c r="N2" t="n">
-        <v>602211.081635208</v>
+        <v>602211.0816352081</v>
       </c>
       <c r="O2" t="n">
-        <v>602211.081635208</v>
+        <v>602211.0816352082</v>
       </c>
       <c r="P2" t="n">
-        <v>602211.0816352076</v>
+        <v>602211.0816352081</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>1001848.128123973</v>
       </c>
       <c r="F3" t="n">
-        <v>687.975512885096</v>
+        <v>687.9755128851602</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3239.0687338934</v>
+        <v>3239.06873389334</v>
       </c>
       <c r="J3" t="n">
         <v>3967.032860481986</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32196.30312651589</v>
+        <v>32196.30312651584</v>
       </c>
       <c r="M3" t="n">
-        <v>250785.2283548423</v>
+        <v>250785.2283548425</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,22 +26436,22 @@
         <v>8721.11620679051</v>
       </c>
       <c r="I4" t="n">
-        <v>9974.588256700954</v>
+        <v>9974.588256700903</v>
       </c>
       <c r="J4" t="n">
-        <v>9974.588256700943</v>
+        <v>9974.588256700903</v>
       </c>
       <c r="K4" t="n">
-        <v>9974.588256700945</v>
+        <v>9974.588256700899</v>
       </c>
       <c r="L4" t="n">
-        <v>9974.588256700965</v>
+        <v>9974.588256700899</v>
       </c>
       <c r="M4" t="n">
-        <v>8798.780621179219</v>
+        <v>8798.780621179227</v>
       </c>
       <c r="N4" t="n">
-        <v>8721.116206790521</v>
+        <v>8721.11620679051</v>
       </c>
       <c r="O4" t="n">
         <v>8721.11620679051</v>
@@ -26485,7 +26485,7 @@
         <v>100201.0244794089</v>
       </c>
       <c r="H5" t="n">
-        <v>100201.0244794089</v>
+        <v>100201.024479409</v>
       </c>
       <c r="I5" t="n">
         <v>100941.6029934064</v>
@@ -26500,16 +26500,16 @@
         <v>100941.6029934064</v>
       </c>
       <c r="M5" t="n">
-        <v>100246.9103023936</v>
+        <v>100246.9103023937</v>
       </c>
       <c r="N5" t="n">
-        <v>100201.0244794089</v>
+        <v>100201.024479409</v>
       </c>
       <c r="O5" t="n">
-        <v>100201.0244794089</v>
+        <v>100201.024479409</v>
       </c>
       <c r="P5" t="n">
-        <v>100201.0244794089</v>
+        <v>100201.024479409</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135936.6871230952</v>
+        <v>135936.6871230953</v>
       </c>
       <c r="C6" t="n">
-        <v>174764.7469047545</v>
+        <v>174764.7469047547</v>
       </c>
       <c r="D6" t="n">
-        <v>-156424.0518561646</v>
+        <v>-156424.0518561647</v>
       </c>
       <c r="E6" t="n">
-        <v>-508701.1516798068</v>
+        <v>-508747.0566753725</v>
       </c>
       <c r="F6" t="n">
-        <v>492600.9654361233</v>
+        <v>492555.7312835798</v>
       </c>
       <c r="G6" t="n">
-        <v>493288.9409490084</v>
+        <v>493243.7067964652</v>
       </c>
       <c r="H6" t="n">
-        <v>493288.9409490085</v>
+        <v>493243.706796465</v>
       </c>
       <c r="I6" t="n">
-        <v>490877.8613666368</v>
+        <v>490842.0340131455</v>
       </c>
       <c r="J6" t="n">
-        <v>490149.8972400487</v>
+        <v>490114.0698865567</v>
       </c>
       <c r="K6" t="n">
-        <v>494116.9301005306</v>
+        <v>494081.1027470387</v>
       </c>
       <c r="L6" t="n">
-        <v>461920.6269740143</v>
+        <v>461884.7996205229</v>
       </c>
       <c r="M6" t="n">
-        <v>242555.0143304736</v>
+        <v>242510.3630178425</v>
       </c>
       <c r="N6" t="n">
-        <v>493288.9409490085</v>
+        <v>493243.7067964652</v>
       </c>
       <c r="O6" t="n">
-        <v>493288.9409490085</v>
+        <v>493243.7067964653</v>
       </c>
       <c r="P6" t="n">
-        <v>493288.9409490082</v>
+        <v>493243.7067964652</v>
       </c>
     </row>
   </sheetData>
@@ -26820,7 +26820,7 @@
         <v>1173.080559026371</v>
       </c>
       <c r="M4" t="n">
-        <v>1161.654692397872</v>
+        <v>1161.654692397873</v>
       </c>
       <c r="N4" t="n">
         <v>1160.89999136194</v>
@@ -26829,7 +26829,7 @@
         <v>1160.89999136194</v>
       </c>
       <c r="P4" t="n">
-        <v>1160.899991361939</v>
+        <v>1160.89999136194</v>
       </c>
     </row>
   </sheetData>
@@ -26972,10 +26972,10 @@
         <v>0.5967955314581559</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>1017.770982898071</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7547010359327043</v>
+        <v>0.7547010359329284</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.18056766443192</v>
+        <v>12.18056766443169</v>
       </c>
       <c r="J4" t="n">
         <v>15.16194852731951</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>127.2123589006164</v>
+        <v>127.2123589006162</v>
       </c>
       <c r="M4" t="n">
         <v>1006.345116269572</v>
@@ -27267,7 +27267,7 @@
         <v>1017.770982898071</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7547010359327043</v>
+        <v>0.7547010359329284</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>354.5691521511496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.1785393870043</v>
+        <v>151.3712351225479</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9072638660644</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.3188953730601</v>
+        <v>82.12619963751658</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.611036676158</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5207472499849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.4535244908929</v>
       </c>
       <c r="E4" t="n">
-        <v>131.2720141192497</v>
+        <v>132.8496205020987</v>
       </c>
       <c r="F4" t="n">
         <v>130.2590994956118</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.289490738636</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.5214014788485</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>363.2525021573175</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27710,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>98.15328284058145</v>
       </c>
       <c r="I6" t="n">
-        <v>71.64112869536793</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>192.4183409406145</v>
+        <v>190.611036676158</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5207472499849</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>164.6700316546178</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.6624789541574</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>73.73230790717892</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
-        <v>160.869456519309</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>240.359534235545</v>
       </c>
       <c r="C8" t="n">
-        <v>222.8985843430719</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>307.7847959439777</v>
       </c>
       <c r="G8" t="n">
-        <v>321.1205730347582</v>
+        <v>270.9614696628449</v>
       </c>
       <c r="H8" t="n">
         <v>319.3306686698467</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.82365148833175</v>
+        <v>164.1979589162673</v>
       </c>
       <c r="T8" t="n">
-        <v>214.4854803065196</v>
+        <v>72.11117287858397</v>
       </c>
       <c r="U8" t="n">
         <v>251.1882960738881</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>227.3567932505334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>24.15887622193173</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>30.33419156038013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>5.070758136703148</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27947,10 +27947,10 @@
         <v>136.2911005550289</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.0713154153728</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>53.16211366621025</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>225.872144146226</v>
       </c>
       <c r="V9" t="n">
-        <v>90.42627972148966</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>63.39867777554187</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.13852744842613</v>
+        <v>80.27940579477875</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28014,13 @@
         <v>24.87251367069223</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>6.241165590276751</v>
       </c>
       <c r="E10" t="n">
         <v>4.059655218633566</v>
       </c>
       <c r="F10" t="n">
-        <v>3.04674059499564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1086686271243</v>
@@ -28032,7 +28032,7 @@
         <v>128.9169849340377</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.97981141132912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.47856493492719</v>
+        <v>137.6214924937145</v>
       </c>
       <c r="S10" t="n">
         <v>208.6403282918078</v>
       </c>
       <c r="T10" t="n">
-        <v>224.175716303489</v>
+        <v>111.0529773333726</v>
       </c>
       <c r="U10" t="n">
         <v>286.2709033165999</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,10 +31856,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>506.1607420902315</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>276.0982811598379</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.8959387893668</v>
       </c>
       <c r="L15" t="n">
         <v>634.5223252782031</v>
@@ -32087,16 +32087,16 @@
         <v>740.4576251150748</v>
       </c>
       <c r="N15" t="n">
-        <v>311.9918560659429</v>
+        <v>760.0553351514425</v>
       </c>
       <c r="O15" t="n">
-        <v>695.3021428010641</v>
+        <v>421.0444060377122</v>
       </c>
       <c r="P15" t="n">
-        <v>558.041268517572</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>373.0358096131062</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.46186068039334</v>
+        <v>5.461860680393339</v>
       </c>
       <c r="H17" t="n">
         <v>55.9362806930783</v>
@@ -32233,40 +32233,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J17" t="n">
-        <v>463.5685979225346</v>
+        <v>463.5685979225345</v>
       </c>
       <c r="K17" t="n">
-        <v>694.7691605235848</v>
+        <v>694.7691605235847</v>
       </c>
       <c r="L17" t="n">
-        <v>861.9225793211726</v>
+        <v>861.9225793211725</v>
       </c>
       <c r="M17" t="n">
-        <v>959.0549441961176</v>
+        <v>959.0549441961175</v>
       </c>
       <c r="N17" t="n">
-        <v>974.5734558542853</v>
+        <v>974.5734558542852</v>
       </c>
       <c r="O17" t="n">
-        <v>920.262078713624</v>
+        <v>920.2620787136239</v>
       </c>
       <c r="P17" t="n">
-        <v>785.4223931664133</v>
+        <v>785.4223931664131</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.8195075498267</v>
+        <v>589.8195075498265</v>
       </c>
       <c r="R17" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4621502544634</v>
+        <v>124.4621502544633</v>
       </c>
       <c r="T17" t="n">
-        <v>23.90929512842186</v>
+        <v>23.90929512842185</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4369488544314671</v>
+        <v>0.436948854431467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,28 +32306,28 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H18" t="n">
-        <v>28.22377861352598</v>
+        <v>28.22377861352597</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>276.0982811598379</v>
       </c>
       <c r="K18" t="n">
         <v>471.8959387893668</v>
       </c>
       <c r="L18" t="n">
-        <v>509.5252430080218</v>
+        <v>634.5223252782031</v>
       </c>
       <c r="M18" t="n">
-        <v>740.457625115075</v>
+        <v>740.4576251150748</v>
       </c>
       <c r="N18" t="n">
-        <v>760.0553351514426</v>
+        <v>760.0553351514425</v>
       </c>
       <c r="O18" t="n">
-        <v>695.3021428010642</v>
+        <v>421.0444060377122</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.28142707914733</v>
+        <v>54.28142707914732</v>
       </c>
       <c r="T18" t="n">
         <v>11.77913376286574</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.450002669955129</v>
+        <v>2.450002669955128</v>
       </c>
       <c r="H19" t="n">
         <v>21.78275101105561</v>
@@ -32391,7 +32391,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J19" t="n">
-        <v>173.2151887658276</v>
+        <v>173.2151887658275</v>
       </c>
       <c r="K19" t="n">
         <v>284.6457647456958</v>
@@ -32400,25 +32400,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M19" t="n">
-        <v>384.0490548912389</v>
+        <v>384.0490548912388</v>
       </c>
       <c r="N19" t="n">
-        <v>374.9172267577701</v>
+        <v>374.91722675777</v>
       </c>
       <c r="O19" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P19" t="n">
-        <v>296.3166865553002</v>
+        <v>296.3166865553001</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.1543144814245</v>
+        <v>205.1543144814244</v>
       </c>
       <c r="R19" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S19" t="n">
-        <v>42.69686471185436</v>
+        <v>42.69686471185435</v>
       </c>
       <c r="T19" t="n">
         <v>10.46819322617191</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H20" t="n">
         <v>55.9362806930783</v>
@@ -32470,40 +32470,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J20" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K20" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L20" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M20" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N20" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O20" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P20" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R20" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T20" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,28 +32543,28 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H21" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>276.0982811598379</v>
       </c>
       <c r="K21" t="n">
-        <v>346.898856519186</v>
+        <v>471.8959387893668</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M21" t="n">
-        <v>740.4576251150748</v>
+        <v>466.1998883517224</v>
       </c>
       <c r="N21" t="n">
-        <v>760.0553351514425</v>
+        <v>760.0553351514426</v>
       </c>
       <c r="O21" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T21" t="n">
         <v>11.77913376286574</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H22" t="n">
         <v>21.78275101105561</v>
@@ -32628,7 +32628,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J22" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K22" t="n">
         <v>284.6457647456958</v>
@@ -32637,25 +32637,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M22" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N22" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O22" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P22" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R22" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S22" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T22" t="n">
         <v>10.46819322617191</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H23" t="n">
         <v>55.9362806930783</v>
@@ -32707,40 +32707,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J23" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K23" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L23" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M23" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N23" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O23" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P23" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R23" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T23" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H24" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,16 +32792,16 @@
         <v>471.8959387893668</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M24" t="n">
-        <v>740.4576251150748</v>
+        <v>466.1998883517222</v>
       </c>
       <c r="N24" t="n">
-        <v>485.79759838809</v>
+        <v>760.0553351514426</v>
       </c>
       <c r="O24" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,7 +32813,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T24" t="n">
         <v>11.77913376286574</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H25" t="n">
         <v>21.78275101105561</v>
@@ -32865,7 +32865,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J25" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K25" t="n">
         <v>284.6457647456958</v>
@@ -32874,25 +32874,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M25" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N25" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O25" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P25" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R25" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S25" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T25" t="n">
         <v>10.46819322617191</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H26" t="n">
         <v>55.9362806930783</v>
@@ -32944,40 +32944,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J26" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K26" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L26" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M26" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N26" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O26" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P26" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R26" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T26" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H27" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>276.0982811598379</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.8959387893668</v>
       </c>
       <c r="L27" t="n">
-        <v>150.6961112588133</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M27" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N27" t="n">
-        <v>760.0553351514425</v>
+        <v>485.79759838809</v>
       </c>
       <c r="O27" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P27" t="n">
-        <v>558.041268517572</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>373.0358096131062</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.4422388978537</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T27" t="n">
         <v>11.77913376286574</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H28" t="n">
         <v>21.78275101105561</v>
@@ -33102,7 +33102,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J28" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K28" t="n">
         <v>284.6457647456958</v>
@@ -33111,25 +33111,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N28" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O28" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P28" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R28" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S28" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T28" t="n">
         <v>10.46819322617191</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H29" t="n">
         <v>55.9362806930783</v>
@@ -33181,40 +33181,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J29" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K29" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L29" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M29" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N29" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O29" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P29" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R29" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T29" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,28 +33254,28 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H30" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>276.0982811598379</v>
       </c>
       <c r="K30" t="n">
-        <v>346.8988565191856</v>
+        <v>471.8959387893668</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M30" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N30" t="n">
-        <v>760.0553351514425</v>
+        <v>760.0553351514426</v>
       </c>
       <c r="O30" t="n">
-        <v>695.3021428010641</v>
+        <v>421.0444060377113</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,7 +33287,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T30" t="n">
         <v>11.77913376286574</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H31" t="n">
         <v>21.78275101105561</v>
@@ -33339,7 +33339,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J31" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K31" t="n">
         <v>284.6457647456958</v>
@@ -33348,25 +33348,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M31" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N31" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O31" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P31" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R31" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S31" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T31" t="n">
         <v>10.46819322617191</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H32" t="n">
         <v>55.9362806930783</v>
@@ -33418,40 +33418,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J32" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K32" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L32" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M32" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N32" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O32" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P32" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R32" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T32" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H33" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,28 +33503,28 @@
         <v>471.8959387893668</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M33" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N33" t="n">
-        <v>485.79759838809</v>
+        <v>760.0553351514426</v>
       </c>
       <c r="O33" t="n">
-        <v>695.3021428010641</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>179.3685334805125</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>373.0358096131063</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T33" t="n">
         <v>11.77913376286574</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H34" t="n">
         <v>21.78275101105561</v>
@@ -33576,7 +33576,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J34" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K34" t="n">
         <v>284.6457647456958</v>
@@ -33585,25 +33585,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M34" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N34" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O34" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P34" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R34" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S34" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T34" t="n">
         <v>10.46819322617191</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H35" t="n">
         <v>55.9362806930783</v>
@@ -33655,40 +33655,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J35" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K35" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L35" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M35" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N35" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O35" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P35" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R35" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T35" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H36" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,16 +33740,16 @@
         <v>471.8959387893668</v>
       </c>
       <c r="L36" t="n">
-        <v>360.264588514851</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M36" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N36" t="n">
-        <v>760.0553351514425</v>
+        <v>485.79759838809</v>
       </c>
       <c r="O36" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,7 +33761,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T36" t="n">
         <v>11.77913376286574</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H37" t="n">
         <v>21.78275101105561</v>
@@ -33813,7 +33813,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J37" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K37" t="n">
         <v>284.6457647456958</v>
@@ -33822,25 +33822,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M37" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N37" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O37" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P37" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R37" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S37" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T37" t="n">
         <v>10.46819322617191</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H38" t="n">
         <v>55.9362806930783</v>
@@ -33892,40 +33892,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J38" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K38" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L38" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M38" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N38" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O38" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P38" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R38" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T38" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H39" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,16 +33977,16 @@
         <v>471.8959387893668</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M39" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N39" t="n">
-        <v>485.7975983880905</v>
+        <v>485.79759838809</v>
       </c>
       <c r="O39" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,7 +33998,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T39" t="n">
         <v>11.77913376286574</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H40" t="n">
         <v>21.78275101105561</v>
@@ -34050,7 +34050,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J40" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K40" t="n">
         <v>284.6457647456958</v>
@@ -34059,25 +34059,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M40" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N40" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O40" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P40" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R40" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S40" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T40" t="n">
         <v>10.46819322617191</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.461860680393339</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H41" t="n">
         <v>55.9362806930783</v>
@@ -34129,40 +34129,40 @@
         <v>210.5683838808644</v>
       </c>
       <c r="J41" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K41" t="n">
-        <v>694.7691605235847</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L41" t="n">
-        <v>861.9225793211725</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M41" t="n">
-        <v>959.0549441961175</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N41" t="n">
-        <v>974.5734558542852</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O41" t="n">
-        <v>920.2620787136239</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P41" t="n">
-        <v>785.4223931664131</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.8195075498265</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R41" t="n">
         <v>343.0936059647584</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T41" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436948854431467</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H42" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,16 +34214,16 @@
         <v>471.8959387893668</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5223252782031</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M42" t="n">
-        <v>740.4576251150748</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N42" t="n">
-        <v>485.7975983880905</v>
+        <v>485.79759838809</v>
       </c>
       <c r="O42" t="n">
-        <v>695.3021428010641</v>
+        <v>695.3021428010642</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,7 +34235,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.28142707914732</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T42" t="n">
         <v>11.77913376286574</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H43" t="n">
         <v>21.78275101105561</v>
@@ -34287,7 +34287,7 @@
         <v>73.67826211101425</v>
       </c>
       <c r="J43" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K43" t="n">
         <v>284.6457647456958</v>
@@ -34296,25 +34296,25 @@
         <v>364.2485787676925</v>
       </c>
       <c r="M43" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N43" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O43" t="n">
         <v>346.296741022385</v>
       </c>
       <c r="P43" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R43" t="n">
         <v>110.1610291418006</v>
       </c>
       <c r="S43" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T43" t="n">
         <v>10.46819322617191</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.461860680393338</v>
+        <v>5.46186068039334</v>
       </c>
       <c r="H44" t="n">
-        <v>55.93628069307828</v>
+        <v>55.9362806930783</v>
       </c>
       <c r="I44" t="n">
         <v>210.5683838808644</v>
       </c>
       <c r="J44" t="n">
-        <v>463.5685979225345</v>
+        <v>463.5685979225346</v>
       </c>
       <c r="K44" t="n">
-        <v>694.7691605235846</v>
+        <v>694.7691605235848</v>
       </c>
       <c r="L44" t="n">
-        <v>861.9225793211724</v>
+        <v>861.9225793211726</v>
       </c>
       <c r="M44" t="n">
-        <v>959.0549441961174</v>
+        <v>959.0549441961176</v>
       </c>
       <c r="N44" t="n">
-        <v>974.573455854285</v>
+        <v>974.5734558542853</v>
       </c>
       <c r="O44" t="n">
-        <v>920.2620787136236</v>
+        <v>920.262078713624</v>
       </c>
       <c r="P44" t="n">
-        <v>785.422393166413</v>
+        <v>785.4223931664133</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.8195075498264</v>
+        <v>589.8195075498267</v>
       </c>
       <c r="R44" t="n">
-        <v>343.0936059647583</v>
+        <v>343.0936059647584</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4621502544633</v>
+        <v>124.4621502544634</v>
       </c>
       <c r="T44" t="n">
-        <v>23.90929512842185</v>
+        <v>23.90929512842186</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4369488544314669</v>
+        <v>0.4369488544314671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,28 +34439,28 @@
         <v>2.922353098948193</v>
       </c>
       <c r="H45" t="n">
-        <v>28.22377861352597</v>
+        <v>28.22377861352598</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>276.0982811598378</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>471.8959387893667</v>
+        <v>471.8959387893668</v>
       </c>
       <c r="L45" t="n">
-        <v>634.522325278203</v>
+        <v>634.5223252782032</v>
       </c>
       <c r="M45" t="n">
-        <v>740.4576251150747</v>
+        <v>740.457625115075</v>
       </c>
       <c r="N45" t="n">
-        <v>485.7975983880912</v>
+        <v>760.0553351514426</v>
       </c>
       <c r="O45" t="n">
-        <v>695.302142801064</v>
+        <v>570.3050605308827</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.28142707914731</v>
+        <v>54.28142707914733</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77913376286573</v>
+        <v>11.77913376286574</v>
       </c>
       <c r="U45" t="n">
         <v>0.1922600722992233</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.450002669955128</v>
+        <v>2.450002669955129</v>
       </c>
       <c r="H46" t="n">
         <v>21.78275101105561</v>
       </c>
       <c r="I46" t="n">
-        <v>73.67826211101423</v>
+        <v>73.67826211101425</v>
       </c>
       <c r="J46" t="n">
-        <v>173.2151887658275</v>
+        <v>173.2151887658276</v>
       </c>
       <c r="K46" t="n">
-        <v>284.6457647456957</v>
+        <v>284.6457647456958</v>
       </c>
       <c r="L46" t="n">
-        <v>364.2485787676924</v>
+        <v>364.2485787676925</v>
       </c>
       <c r="M46" t="n">
-        <v>384.0490548912388</v>
+        <v>384.0490548912389</v>
       </c>
       <c r="N46" t="n">
-        <v>374.91722675777</v>
+        <v>374.9172267577701</v>
       </c>
       <c r="O46" t="n">
-        <v>346.2967410223849</v>
+        <v>346.296741022385</v>
       </c>
       <c r="P46" t="n">
-        <v>296.3166865553001</v>
+        <v>296.3166865553002</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.1543144814244</v>
+        <v>205.1543144814245</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1610291418005</v>
+        <v>110.1610291418006</v>
       </c>
       <c r="S46" t="n">
-        <v>42.69686471185435</v>
+        <v>42.69686471185436</v>
       </c>
       <c r="T46" t="n">
         <v>10.46819322617191</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1336365092702798</v>
+        <v>0.1336365092702799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="M2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14.54934454641767</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="P3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14.54934454641767</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>15.16194852731947</v>
@@ -34869,10 +34869,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54934454641767</v>
+        <v>9.632705730585778</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.336416952992847</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="N5" t="n">
         <v>15.16194852731947</v>
@@ -34954,7 +34954,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="L6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="M6" t="n">
-        <v>8.179020993895531</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35103,10 +35103,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="N7" t="n">
+        <v>9.632705730585775</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9.632705730585771</v>
       </c>
       <c r="P7" t="n">
         <v>4.916638815831901</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>49.32163785977574</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>372.1863346759013</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.2606544931712</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>334.0544998150078</v>
       </c>
       <c r="L15" t="n">
         <v>495.9679454983289</v>
@@ -35735,16 +35735,16 @@
         <v>598.3235911930565</v>
       </c>
       <c r="N15" t="n">
-        <v>180.6501439826096</v>
+        <v>628.7136230681092</v>
       </c>
       <c r="O15" t="n">
-        <v>552.7058983566196</v>
+        <v>278.4481615932677</v>
       </c>
       <c r="P15" t="n">
-        <v>424.0668611032418</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0540355270847</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09249431045850542</v>
+        <v>0.092494310458477</v>
       </c>
       <c r="J17" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K17" t="n">
-        <v>474.6793094786042</v>
+        <v>474.6793094786041</v>
       </c>
       <c r="L17" t="n">
-        <v>626.1561643511855</v>
+        <v>626.1561643511852</v>
       </c>
       <c r="M17" t="n">
-        <v>728.7087109688449</v>
+        <v>728.7087109688448</v>
       </c>
       <c r="N17" t="n">
-        <v>745.1603922576944</v>
+        <v>745.1603922576942</v>
       </c>
       <c r="O17" t="n">
-        <v>690.1638672919372</v>
+        <v>690.1638672919371</v>
       </c>
       <c r="P17" t="n">
-        <v>554.1893974111438</v>
+        <v>554.1893974111435</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.5138176753771</v>
+        <v>367.513817675377</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5080681506263</v>
+        <v>127.5080681506262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.2606544931712</v>
       </c>
       <c r="K18" t="n">
         <v>334.0544998150078</v>
       </c>
       <c r="L18" t="n">
-        <v>370.9708632281477</v>
+        <v>495.9679454983289</v>
       </c>
       <c r="M18" t="n">
-        <v>598.3235911930567</v>
+        <v>598.3235911930565</v>
       </c>
       <c r="N18" t="n">
-        <v>628.7136230681093</v>
+        <v>628.7136230681092</v>
       </c>
       <c r="O18" t="n">
-        <v>552.7058983566197</v>
+        <v>278.4481615932677</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.8560086491548</v>
+        <v>79.85600864915477</v>
       </c>
       <c r="K19" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L19" t="n">
-        <v>391.8386040280087</v>
+        <v>391.8386040280086</v>
       </c>
       <c r="M19" t="n">
-        <v>423.6329318530795</v>
+        <v>423.6329318530794</v>
       </c>
       <c r="N19" t="n">
         <v>419.0493991369987</v>
@@ -36057,10 +36057,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5952458201937</v>
+        <v>293.5952458201936</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9922712297301</v>
+        <v>118.99227122973</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J20" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K20" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L20" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M20" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N20" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O20" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P20" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R20" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.2606544931712</v>
       </c>
       <c r="K21" t="n">
-        <v>209.057417544827</v>
+        <v>334.0544998150078</v>
       </c>
       <c r="L21" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M21" t="n">
-        <v>598.3235911930565</v>
+        <v>324.0658544297041</v>
       </c>
       <c r="N21" t="n">
-        <v>628.7136230681092</v>
+        <v>628.7136230681093</v>
       </c>
       <c r="O21" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K22" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L22" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M22" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N22" t="n">
         <v>419.0493991369987</v>
@@ -36294,10 +36294,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J23" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K23" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L23" t="n">
-        <v>674.3862908608562</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M23" t="n">
-        <v>728.7087109688448</v>
+        <v>776.938837478514</v>
       </c>
       <c r="N23" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O23" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P23" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>334.0544998150078</v>
       </c>
       <c r="L24" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M24" t="n">
-        <v>598.3235911930565</v>
+        <v>324.0658544297039</v>
       </c>
       <c r="N24" t="n">
-        <v>354.4558863047567</v>
+        <v>628.7136230681093</v>
       </c>
       <c r="O24" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K25" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L25" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M25" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N25" t="n">
         <v>419.0493991369987</v>
@@ -36531,10 +36531,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P25" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J26" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K26" t="n">
-        <v>474.6793094786041</v>
+        <v>522.9094359882732</v>
       </c>
       <c r="L26" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M26" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N26" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O26" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P26" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R26" t="n">
-        <v>175.7381946602969</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.2606544931712</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>334.0544998150078</v>
       </c>
       <c r="L27" t="n">
-        <v>12.14173147893917</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M27" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N27" t="n">
-        <v>628.7136230681092</v>
+        <v>354.4558863047567</v>
       </c>
       <c r="O27" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P27" t="n">
-        <v>424.0668611032418</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0540355270847</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.7627349338897</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K28" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L28" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M28" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N28" t="n">
         <v>419.0493991369987</v>
@@ -36768,10 +36768,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J29" t="n">
-        <v>282.5226933958483</v>
+        <v>330.7528199055172</v>
       </c>
       <c r="K29" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L29" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M29" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N29" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O29" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P29" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R29" t="n">
-        <v>175.7381946602969</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.2606544931712</v>
       </c>
       <c r="K30" t="n">
-        <v>209.0574175448267</v>
+        <v>334.0544998150078</v>
       </c>
       <c r="L30" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M30" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N30" t="n">
-        <v>628.7136230681092</v>
+        <v>628.7136230681093</v>
       </c>
       <c r="O30" t="n">
-        <v>552.7058983566196</v>
+        <v>278.4481615932668</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K31" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L31" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M31" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N31" t="n">
         <v>419.0493991369987</v>
@@ -37005,10 +37005,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J32" t="n">
-        <v>282.5226933958483</v>
+        <v>330.7528199055172</v>
       </c>
       <c r="K32" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L32" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M32" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N32" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O32" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P32" t="n">
-        <v>602.419523920815</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>334.0544998150078</v>
       </c>
       <c r="L33" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M33" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N33" t="n">
-        <v>354.4558863047567</v>
+        <v>628.7136230681093</v>
       </c>
       <c r="O33" t="n">
-        <v>552.7058983566196</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>45.39412606618222</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>233.0540355270847</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K34" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L34" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M34" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N34" t="n">
         <v>419.0493991369987</v>
@@ -37242,10 +37242,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J35" t="n">
-        <v>282.5226933958483</v>
+        <v>285.5110045684308</v>
       </c>
       <c r="K35" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L35" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M35" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N35" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O35" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P35" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q35" t="n">
-        <v>370.5021288479592</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>334.0544998150078</v>
       </c>
       <c r="L36" t="n">
-        <v>221.7102087349768</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M36" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N36" t="n">
-        <v>628.7136230681092</v>
+        <v>354.4558863047567</v>
       </c>
       <c r="O36" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K37" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L37" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M37" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N37" t="n">
         <v>419.0493991369987</v>
@@ -37479,10 +37479,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J38" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K38" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L38" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M38" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N38" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O38" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P38" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5080681506267</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>334.0544998150078</v>
       </c>
       <c r="L39" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M39" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N39" t="n">
-        <v>354.4558863047571</v>
+        <v>354.4558863047567</v>
       </c>
       <c r="O39" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K40" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L40" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M40" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N40" t="n">
         <v>419.0493991369987</v>
@@ -37716,10 +37716,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.092494310458477</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J41" t="n">
         <v>282.5226933958483</v>
       </c>
       <c r="K41" t="n">
-        <v>474.6793094786041</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L41" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M41" t="n">
-        <v>728.7087109688448</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N41" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O41" t="n">
-        <v>690.1638672919371</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P41" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.513817675377</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R41" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>334.0544998150078</v>
       </c>
       <c r="L42" t="n">
-        <v>495.9679454983289</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M42" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N42" t="n">
-        <v>354.4558863047571</v>
+        <v>354.4558863047567</v>
       </c>
       <c r="O42" t="n">
-        <v>552.7058983566196</v>
+        <v>552.7058983566197</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.85600864915477</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K43" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L43" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M43" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N43" t="n">
         <v>419.0493991369987</v>
@@ -37953,10 +37953,10 @@
         <v>370.8818689364247</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09249431045844858</v>
+        <v>0.09249431045850542</v>
       </c>
       <c r="J44" t="n">
-        <v>282.5226933958482</v>
+        <v>282.5226933958483</v>
       </c>
       <c r="K44" t="n">
-        <v>474.679309478604</v>
+        <v>474.6793094786042</v>
       </c>
       <c r="L44" t="n">
-        <v>626.1561643511852</v>
+        <v>626.1561643511855</v>
       </c>
       <c r="M44" t="n">
-        <v>728.7087109688447</v>
+        <v>728.7087109688449</v>
       </c>
       <c r="N44" t="n">
-        <v>745.1603922576942</v>
+        <v>745.1603922576944</v>
       </c>
       <c r="O44" t="n">
-        <v>690.1638672919369</v>
+        <v>690.1638672919372</v>
       </c>
       <c r="P44" t="n">
-        <v>554.1893974111435</v>
+        <v>554.1893974111438</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.5138176753769</v>
+        <v>367.5138176753771</v>
       </c>
       <c r="R44" t="n">
-        <v>127.5080681506262</v>
+        <v>127.5080681506263</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.2606544931711</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>334.0544998150077</v>
+        <v>334.0544998150078</v>
       </c>
       <c r="L45" t="n">
-        <v>495.9679454983288</v>
+        <v>495.967945498329</v>
       </c>
       <c r="M45" t="n">
-        <v>598.3235911930565</v>
+        <v>598.3235911930567</v>
       </c>
       <c r="N45" t="n">
-        <v>354.4558863047578</v>
+        <v>628.7136230681093</v>
       </c>
       <c r="O45" t="n">
-        <v>552.7058983566195</v>
+        <v>427.7088160864382</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.85600864915475</v>
+        <v>79.8560086491548</v>
       </c>
       <c r="K46" t="n">
         <v>262.3762729198129</v>
       </c>
       <c r="L46" t="n">
-        <v>391.8386040280086</v>
+        <v>391.8386040280087</v>
       </c>
       <c r="M46" t="n">
-        <v>423.6329318530794</v>
+        <v>423.6329318530795</v>
       </c>
       <c r="N46" t="n">
-        <v>419.0493991369985</v>
+        <v>419.0493991369987</v>
       </c>
       <c r="O46" t="n">
-        <v>370.8818689364246</v>
+        <v>370.8818689364247</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5952458201936</v>
+        <v>293.5952458201937</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.99227122973</v>
+        <v>118.9922712297301</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
